--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="310">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -132,9 +132,6 @@
     <t>NW</t>
   </si>
   <si>
-    <t>Oshadhi</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -150,15 +147,9 @@
     <t>set</t>
   </si>
   <si>
-    <t>ena</t>
-  </si>
-  <si>
     <t>sainA</t>
   </si>
   <si>
-    <t>Sandhi</t>
-  </si>
-  <si>
     <t>it,u</t>
   </si>
   <si>
@@ -516,12 +507,6 @@
     <t>Ws</t>
   </si>
   <si>
-    <t>nemiH devAn</t>
-  </si>
-  <si>
-    <t>savane pasUn</t>
-  </si>
-  <si>
     <t>tarhAn</t>
   </si>
   <si>
@@ -922,6 +907,54 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>First word/Padam</t>
+  </si>
+  <si>
+    <t>Next word/Padam</t>
+  </si>
+  <si>
+    <t>Combined Word</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>sccc</t>
+  </si>
+  <si>
+    <t>utcccc</t>
+  </si>
+  <si>
+    <t>OShadhi</t>
+  </si>
+  <si>
+    <t>Drop Visaragam</t>
+  </si>
+  <si>
+    <t>Perform Sandhi</t>
+  </si>
+  <si>
+    <t>sauShadi</t>
+  </si>
+  <si>
+    <t>enA</t>
+  </si>
+  <si>
+    <t>First Str</t>
+  </si>
+  <si>
+    <t>as above</t>
+  </si>
+  <si>
+    <t>nemiH, devAn</t>
+  </si>
+  <si>
+    <t>savane, pasUn</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,6 +1074,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,10 +1357,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J230"/>
+  <dimension ref="A3:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1334,11 +1374,15 @@
     <col min="4" max="4" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.796875" customWidth="1"/>
     <col min="6" max="6" width="21.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1347,14 +1391,14 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1372,13 +1416,22 @@
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1396,15 +1449,15 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1422,15 +1475,15 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -1448,15 +1501,15 @@
         <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1473,16 +1526,16 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="I9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1500,15 +1553,15 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -1517,19 +1570,19 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1538,24 +1591,24 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="I12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1575,13 +1628,16 @@
       <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="J13" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1601,13 +1657,16 @@
       <c r="H14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="J14" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1628,12 +1687,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1645,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>34</v>
@@ -1653,8 +1712,11 @@
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1662,148 +1724,177 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
@@ -1812,117 +1903,121 @@
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1933,537 +2028,537 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J50" s="2"/>
     </row>
@@ -2529,25 +2624,25 @@
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2555,16 +2650,16 @@
     </row>
     <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -2573,7 +2668,7 @@
         <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2581,25 +2676,25 @@
     </row>
     <row r="58" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2607,16 +2702,16 @@
     </row>
     <row r="59" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
@@ -2625,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2633,16 +2728,16 @@
     </row>
     <row r="60" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -2651,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2659,16 +2754,16 @@
     </row>
     <row r="61" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -2677,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2685,25 +2780,25 @@
     </row>
     <row r="62" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2711,16 +2806,16 @@
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -2729,24 +2824,24 @@
         <v>17</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -2755,21 +2850,21 @@
         <v>17</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -2778,21 +2873,21 @@
         <v>17</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -2801,18 +2896,18 @@
         <v>17</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
@@ -2824,21 +2919,21 @@
         <v>17</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
@@ -2847,21 +2942,21 @@
         <v>17</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
@@ -2870,21 +2965,21 @@
         <v>17</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
@@ -2893,21 +2988,21 @@
         <v>17</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
@@ -2916,21 +3011,21 @@
         <v>17</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -2939,21 +3034,21 @@
         <v>17</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
@@ -2962,399 +3057,399 @@
         <v>17</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3367,274 +3462,274 @@
     </row>
     <row r="93" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I105" s="2"/>
     </row>
     <row r="107" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3642,681 +3737,681 @@
     </row>
     <row r="110" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="8"/>
@@ -4356,72 +4451,72 @@
     </row>
     <row r="141" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G141" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4432,625 +4527,625 @@
     </row>
     <row r="148" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F165" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E176" t="s">
         <v>24</v>
@@ -5061,879 +5156,879 @@
     </row>
     <row r="177" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E177" t="s">
         <v>24</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G179" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F216" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F219" s="2" t="s">
+      <c r="G219" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="634">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -759,9 +759,6 @@
     <t>nEShTaH</t>
   </si>
   <si>
-    <t xml:space="preserve"> tvaShTaH</t>
-  </si>
-  <si>
     <t>kaH</t>
   </si>
   <si>
@@ -777,9 +774,6 @@
     <t>antaH</t>
   </si>
   <si>
-    <t>No swaram on first letter</t>
-  </si>
-  <si>
     <t>ahAH</t>
   </si>
   <si>
@@ -1921,6 +1915,18 @@
   </si>
   <si>
     <t>H =Sh</t>
+  </si>
+  <si>
+    <t>tvaShTaH</t>
+  </si>
+  <si>
+    <t>a = anudAttam</t>
+  </si>
+  <si>
+    <t>else o</t>
+  </si>
+  <si>
+    <t>udAttam = o</t>
   </si>
 </sst>
 </file>
@@ -2352,10 +2358,10 @@
   <dimension ref="A3:T237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F229" sqref="F229"/>
+      <selection pane="bottomRight" activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2413,34 +2419,34 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2469,16 +2475,16 @@
         <v>129</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2507,16 +2513,16 @@
         <v>130</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2545,7 +2551,7 @@
         <v>131</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>6</v>
@@ -2554,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2583,7 +2589,7 @@
         <v>133</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
@@ -2592,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2621,7 +2627,7 @@
         <v>132</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
@@ -2630,7 +2636,7 @@
         <v>19</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2680,7 +2686,7 @@
         <v>128</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
@@ -2689,7 +2695,7 @@
         <v>201</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2703,34 +2709,34 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2759,19 +2765,19 @@
         <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2800,19 +2806,19 @@
         <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.4">
@@ -2829,10 +2835,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>31</v>
@@ -2844,19 +2850,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2884,32 +2890,32 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2929,17 +2935,17 @@
         <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>34</v>
@@ -2948,22 +2954,22 @@
         <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2980,7 +2986,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>35</v>
@@ -3023,7 +3029,7 @@
         <v>164</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>37</v>
@@ -3033,22 +3039,22 @@
         <v>37</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3075,7 +3081,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>34</v>
@@ -3090,16 +3096,16 @@
         <v>36</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3122,35 +3128,35 @@
         <v>40</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="S23" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3244,7 +3250,7 @@
         <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -3260,25 +3266,25 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3292,7 +3298,7 @@
         <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -3308,25 +3314,25 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3350,7 +3356,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>149</v>
@@ -3372,16 +3378,16 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3414,16 +3420,16 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3456,16 +3462,16 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3498,16 +3504,16 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3540,16 +3546,16 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3582,16 +3588,16 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3624,16 +3630,16 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>155</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3666,7 +3672,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>156</v>
@@ -3675,7 +3681,7 @@
         <v>153</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3686,7 +3692,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>157</v>
@@ -3708,16 +3714,16 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3750,16 +3756,16 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>158</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3822,16 +3828,16 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>160</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3845,7 +3851,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3864,16 +3870,16 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3884,10 +3890,10 @@
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -3906,16 +3912,16 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3926,7 +3932,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>161</v>
@@ -3948,16 +3954,16 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3990,16 +3996,16 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>162</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4013,7 +4019,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -4032,16 +4038,16 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4074,16 +4080,16 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>152</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4094,7 +4100,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>153</v>
@@ -4116,16 +4122,16 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4158,16 +4164,16 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>158</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4198,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -4210,21 +4216,21 @@
         <v>142</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4238,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -4250,21 +4256,21 @@
         <v>142</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4278,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -4290,21 +4296,21 @@
         <v>142</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4335,16 +4341,16 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>136</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4375,16 +4381,16 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4415,16 +4421,16 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4438,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -4450,28 +4456,28 @@
         <v>142</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4501,25 +4507,25 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4545,25 +4551,25 @@
         <v>70</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L64" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4589,25 +4595,25 @@
         <v>70</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N65" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4633,25 +4639,25 @@
         <v>70</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="Q66" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4677,7 +4683,7 @@
         <v>70</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>26</v>
@@ -4686,7 +4692,7 @@
         <v>6</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4712,7 +4718,7 @@
         <v>70</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>64</v>
@@ -4721,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4747,7 +4753,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>65</v>
@@ -4756,7 +4762,7 @@
         <v>6</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4782,7 +4788,7 @@
         <v>70</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4808,16 +4814,16 @@
         <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4843,16 +4849,16 @@
         <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4878,16 +4884,16 @@
         <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4913,22 +4919,22 @@
         <v>146</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4954,22 +4960,22 @@
         <v>146</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>147</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4995,17 +5001,17 @@
         <v>70</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5031,17 +5037,17 @@
         <v>70</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5052,7 +5058,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -5067,17 +5073,17 @@
         <v>70</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L78" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5103,17 +5109,17 @@
         <v>70</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5139,17 +5145,17 @@
         <v>70</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5175,17 +5181,17 @@
         <v>70</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5196,7 +5202,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -5211,25 +5217,25 @@
         <v>70</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M82" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O82" s="2" t="s">
+      <c r="Q82" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5255,17 +5261,17 @@
         <v>70</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5291,17 +5297,17 @@
         <v>70</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5327,16 +5333,16 @@
         <v>70</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5362,16 +5368,16 @@
         <v>70</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5397,16 +5403,16 @@
         <v>70</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5433,13 +5439,13 @@
         <v>86</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5465,19 +5471,19 @@
         <v>86</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5488,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>29</v>
@@ -5503,13 +5509,13 @@
         <v>86</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5720,7 +5726,7 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>142</v>
@@ -5755,35 +5761,35 @@
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H105" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="L105" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5798,7 +5804,7 @@
         <v>164</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>142</v>
@@ -5817,7 +5823,7 @@
         <v>164</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>142</v>
@@ -5832,26 +5838,26 @@
         <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5862,26 +5868,26 @@
         <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6419,7 +6425,7 @@
         <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>114</v>
@@ -6445,7 +6451,7 @@
         <v>32</v>
       </c>
       <c r="C135" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>114</v>
@@ -6471,7 +6477,7 @@
         <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>114</v>
@@ -6497,7 +6503,7 @@
         <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>114</v>
@@ -6523,7 +6529,7 @@
         <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>114</v>
@@ -6549,7 +6555,7 @@
         <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>114</v>
@@ -6858,31 +6864,31 @@
         <v>43</v>
       </c>
       <c r="I157" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K157" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M157" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="P157" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="O157" s="2" t="s">
+      <c r="Q157" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6914,19 +6920,19 @@
         <v>193</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>193</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6955,22 +6961,22 @@
         <v>43</v>
       </c>
       <c r="I159" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="O159" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="L159" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M159" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7002,19 +7008,19 @@
         <v>195</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>195</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7046,28 +7052,28 @@
         <v>196</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K161" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="N161" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="L161" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="O161" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="O161" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>196</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7099,19 +7105,19 @@
         <v>197</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>197</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7140,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7172,19 +7178,19 @@
         <v>199</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>199</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7216,19 +7222,19 @@
         <v>200</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>200</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7245,10 +7251,10 @@
         <v>43</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>209</v>
@@ -7257,27 +7263,27 @@
         <v>43</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>32</v>
@@ -7289,34 +7295,34 @@
         <v>55</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I167" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K167" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>158</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7348,19 +7354,19 @@
         <v>201</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>201</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7392,19 +7398,19 @@
         <v>202</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>202</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7436,19 +7442,19 @@
         <v>203</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>203</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7480,10 +7486,10 @@
         <v>204</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>153</v>
@@ -7492,7 +7498,7 @@
         <v>204</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7524,19 +7530,19 @@
         <v>205</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M172" s="11" t="s">
         <v>205</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7568,19 +7574,19 @@
         <v>207</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>207</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8202,7 +8208,7 @@
         <v>24</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>244</v>
+        <v>630</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>219</v>
@@ -8219,13 +8225,13 @@
         <v>24</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E211" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8239,13 +8245,13 @@
         <v>24</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="G212" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -8259,13 +8265,16 @@
         <v>24</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>250</v>
+        <v>631</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8276,13 +8285,13 @@
         <v>32</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8293,13 +8302,13 @@
         <v>32</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8310,13 +8319,13 @@
         <v>32</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>228</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8327,16 +8336,16 @@
         <v>32</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8347,16 +8356,16 @@
         <v>32</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="G218" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8367,16 +8376,16 @@
         <v>32</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8387,16 +8396,16 @@
         <v>32</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8407,16 +8416,16 @@
         <v>32</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8427,16 +8436,16 @@
         <v>32</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8447,16 +8456,16 @@
         <v>32</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8467,16 +8476,16 @@
         <v>32</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8487,16 +8496,16 @@
         <v>32</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8507,16 +8516,16 @@
         <v>32</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8527,16 +8536,16 @@
         <v>32</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8550,16 +8559,16 @@
         <v>24</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8573,16 +8582,16 @@
         <v>24</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8596,16 +8605,16 @@
         <v>59</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8619,10 +8628,10 @@
         <v>148</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8636,10 +8645,10 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8653,10 +8662,10 @@
         <v>2</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8670,16 +8679,16 @@
         <v>148</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8693,16 +8702,16 @@
         <v>2</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8725,7 +8734,7 @@
         <v>229</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8745,10 +8754,10 @@
         <v>12</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="703">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -294,9 +294,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Shu</t>
-  </si>
-  <si>
     <t>ShU</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>vAH</t>
   </si>
   <si>
-    <t>Sat</t>
-  </si>
-  <si>
     <t>tri</t>
   </si>
   <si>
@@ -1209,9 +1203,6 @@
     <t>2.4.11.4</t>
   </si>
   <si>
-    <t xml:space="preserve"> vidvAn</t>
-  </si>
-  <si>
     <t>vidvA(gg)StraidhAtavIyena</t>
   </si>
   <si>
@@ -1482,9 +1473,6 @@
     <t>kamu Shvit</t>
   </si>
   <si>
-    <t>u Shu</t>
-  </si>
-  <si>
     <t>mo Shu</t>
   </si>
   <si>
@@ -1927,6 +1915,225 @@
   </si>
   <si>
     <t>udAttam = o</t>
+  </si>
+  <si>
+    <t>U Shu</t>
+  </si>
+  <si>
+    <t>mO</t>
+  </si>
+  <si>
+    <t>naH</t>
+  </si>
+  <si>
+    <t>Shu NaH</t>
+  </si>
+  <si>
+    <t>mO Shu NaH</t>
+  </si>
+  <si>
+    <t>2.2.12.6</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Krudhi suvaH</t>
+  </si>
+  <si>
+    <t>suvar na</t>
+  </si>
+  <si>
+    <t>kRudhisuvarNa</t>
+  </si>
+  <si>
+    <t>1.4.44.1</t>
+  </si>
+  <si>
+    <t>indra</t>
+  </si>
+  <si>
+    <t>samindra</t>
+  </si>
+  <si>
+    <t>indra na</t>
+  </si>
+  <si>
+    <t>samindra No</t>
+  </si>
+  <si>
+    <t>Shu or ShU</t>
+  </si>
+  <si>
+    <t>5.7.2.1</t>
+  </si>
+  <si>
+    <t>asthUri NaH</t>
+  </si>
+  <si>
+    <t>6.3.2.2</t>
+  </si>
+  <si>
+    <t>uru NaH</t>
+  </si>
+  <si>
+    <t>naskRudhi</t>
+  </si>
+  <si>
+    <t>uruNaskRudhi</t>
+  </si>
+  <si>
+    <t>5.6.1.3</t>
+  </si>
+  <si>
+    <t>nAma</t>
+  </si>
+  <si>
+    <t>vArNAma</t>
+  </si>
+  <si>
+    <t>7.2.1.5</t>
+  </si>
+  <si>
+    <t>Shat</t>
+  </si>
+  <si>
+    <t>ShaNNa</t>
+  </si>
+  <si>
+    <t>7.2.10.4</t>
+  </si>
+  <si>
+    <t>nenikte</t>
+  </si>
+  <si>
+    <t>nirNenikte</t>
+  </si>
+  <si>
+    <t>4.5.10.4</t>
+  </si>
+  <si>
+    <t>pari NaH</t>
+  </si>
+  <si>
+    <t>1.8..2.1</t>
+  </si>
+  <si>
+    <t>pra NaH</t>
+  </si>
+  <si>
+    <t>4.6.7.1</t>
+  </si>
+  <si>
+    <t>indra eNam</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>5.6.9.1</t>
+  </si>
+  <si>
+    <t>nirhaNyAt</t>
+  </si>
+  <si>
+    <t>n+t</t>
+  </si>
+  <si>
+    <t>1.8.5.1</t>
+  </si>
+  <si>
+    <t>7.5.10.1</t>
+  </si>
+  <si>
+    <t>7.5.9.3</t>
+  </si>
+  <si>
+    <t>5.1.6.4</t>
+  </si>
+  <si>
+    <t>6.5.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nRutyanti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nUnam </t>
+  </si>
+  <si>
+    <t>pra nUnam</t>
+  </si>
+  <si>
+    <t>pari nRutyanti</t>
+  </si>
+  <si>
+    <t>prAnyaH</t>
+  </si>
+  <si>
+    <t>prAnyABiH</t>
+  </si>
+  <si>
+    <t>prAanyAni</t>
+  </si>
+  <si>
+    <t>3.1.10.2</t>
+  </si>
+  <si>
+    <t>antarikShAt</t>
+  </si>
+  <si>
+    <t>paryantarikShAt</t>
+  </si>
+  <si>
+    <t>soma , duryAn</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>duryAn</t>
+  </si>
+  <si>
+    <t>saH ,asmAn</t>
+  </si>
+  <si>
+    <t>1.6.6.4</t>
+  </si>
+  <si>
+    <t>adhipatIn</t>
+  </si>
+  <si>
+    <t>asmAn adhipatIn</t>
+  </si>
+  <si>
+    <t>so &amp;smAn</t>
+  </si>
+  <si>
+    <t>so asmA(gm) adhipatIn</t>
+  </si>
+  <si>
+    <t>arAn</t>
+  </si>
+  <si>
+    <t>parAn</t>
+  </si>
+  <si>
+    <t>3.3.6.3</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>parAnanu</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2034,6 +2241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2047,7 +2260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2069,12 +2282,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,13 +2572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T237"/>
+  <dimension ref="A3:T245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E212" sqref="E212"/>
+      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2419,34 +2636,34 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2472,19 +2689,19 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2510,19 +2727,19 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2539,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -2548,10 +2765,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>6</v>
@@ -2560,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2577,7 +2794,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -2586,10 +2803,10 @@
         <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
@@ -2598,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2624,10 +2841,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
@@ -2636,7 +2853,7 @@
         <v>19</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2656,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2674,28 +2891,28 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2709,34 +2926,34 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2765,19 +2982,19 @@
         <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2806,63 +3023,63 @@
         <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
+    </row>
+    <row r="16" spans="1:17" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.4">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="J16" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>322</v>
+      <c r="O16" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2890,32 +3107,32 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2935,17 +3152,17 @@
         <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>34</v>
@@ -2954,22 +3171,22 @@
         <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2986,7 +3203,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>35</v>
@@ -3026,10 +3243,10 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>37</v>
@@ -3039,22 +3256,22 @@
         <v>37</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3081,7 +3298,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>34</v>
@@ -3096,16 +3313,16 @@
         <v>36</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3128,35 +3345,35 @@
         <v>40</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="S23" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3186,30 +3403,30 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:20" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:20" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3247,10 +3464,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -3266,25 +3483,25 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3295,10 +3512,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -3314,30 +3531,30 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3356,10 +3573,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -3378,16 +3595,16 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3401,7 +3618,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -3420,16 +3637,16 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3443,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3462,16 +3679,16 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3485,7 +3702,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3504,16 +3721,16 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3527,7 +3744,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -3546,16 +3763,16 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3569,7 +3786,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3588,16 +3805,16 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3611,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -3630,16 +3847,16 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3653,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3672,16 +3889,16 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3692,10 +3909,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -3714,16 +3931,16 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3737,7 +3954,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -3756,16 +3973,16 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3779,7 +3996,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -3809,7 +4026,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -3828,16 +4045,16 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3851,7 +4068,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3870,16 +4087,16 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3890,10 +4107,10 @@
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -3912,16 +4129,16 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3932,10 +4149,10 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -3954,16 +4171,16 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3977,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -3996,16 +4213,16 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4019,7 +4236,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -4038,16 +4255,16 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4061,7 +4278,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -4080,16 +4297,16 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4100,10 +4317,10 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -4122,16 +4339,16 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4145,7 +4362,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -4164,16 +4381,16 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4198,39 +4415,39 @@
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4238,13 +4455,13 @@
         <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -4253,24 +4470,24 @@
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4278,39 +4495,39 @@
         <v>42</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4318,13 +4535,13 @@
         <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -4333,24 +4550,24 @@
         <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4358,13 +4575,13 @@
         <v>42</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
@@ -4373,24 +4590,24 @@
         <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4398,13 +4615,13 @@
         <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -4413,24 +4630,24 @@
         <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4438,13 +4655,13 @@
         <v>42</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -4453,31 +4670,31 @@
         <v>46</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4507,25 +4724,25 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4551,25 +4768,25 @@
         <v>70</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4595,25 +4812,25 @@
         <v>70</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N65" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4639,25 +4856,25 @@
         <v>70</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q66" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4683,7 +4900,7 @@
         <v>70</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>26</v>
@@ -4692,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>485</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4718,7 +4935,7 @@
         <v>70</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>64</v>
@@ -4727,7 +4944,7 @@
         <v>6</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4753,7 +4970,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>65</v>
@@ -4762,33 +4979,33 @@
         <v>6</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4814,16 +5031,16 @@
         <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4849,16 +5066,16 @@
         <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4884,30 +5101,30 @@
         <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
@@ -4916,39 +5133,39 @@
         <v>46</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
@@ -4957,25 +5174,25 @@
         <v>46</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5001,17 +5218,17 @@
         <v>70</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5037,17 +5254,17 @@
         <v>70</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5058,7 +5275,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -5073,17 +5290,17 @@
         <v>70</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5109,17 +5326,17 @@
         <v>70</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5145,17 +5362,17 @@
         <v>70</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5181,17 +5398,17 @@
         <v>70</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5202,7 +5419,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -5217,25 +5434,25 @@
         <v>70</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5261,17 +5478,17 @@
         <v>70</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5297,17 +5514,17 @@
         <v>70</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5333,16 +5550,16 @@
         <v>70</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5368,16 +5585,16 @@
         <v>70</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5403,16 +5620,16 @@
         <v>70</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5439,13 +5656,13 @@
         <v>86</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
+      </c>
+      <c r="L88" s="19" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5471,19 +5688,19 @@
         <v>86</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5494,7 +5711,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>29</v>
@@ -5509,13 +5726,13 @@
         <v>86</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5528,366 +5745,366 @@
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5901,19 +6118,19 @@
     </row>
     <row r="112" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>46</v>
@@ -5924,35 +6141,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>32</v>
@@ -5961,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>89</v>
+        <v>645</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
@@ -5974,10 +6191,33 @@
       <c r="I115" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K115" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+    </row>
+    <row r="116" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>32</v>
@@ -5986,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
@@ -5999,10 +6239,18 @@
       <c r="I116" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+    </row>
+    <row r="117" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>32</v>
@@ -6011,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
@@ -6024,10 +6272,33 @@
       <c r="I117" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K117" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+    </row>
+    <row r="118" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>32</v>
@@ -6036,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
@@ -6049,10 +6320,33 @@
       <c r="I118" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K118" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+    </row>
+    <row r="119" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>32</v>
@@ -6061,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
@@ -6074,10 +6368,27 @@
       <c r="I119" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K119" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+    </row>
+    <row r="120" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>32</v>
@@ -6086,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
@@ -6099,10 +6410,33 @@
       <c r="I120" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K120" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+    </row>
+    <row r="121" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>32</v>
@@ -6111,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
@@ -6124,10 +6458,27 @@
       <c r="I121" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K121" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+    </row>
+    <row r="122" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>32</v>
@@ -6136,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>656</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
@@ -6149,10 +6500,27 @@
       <c r="I122" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K122" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+    </row>
+    <row r="123" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>32</v>
@@ -6161,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
@@ -6174,10 +6542,21 @@
       <c r="I123" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J123" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+    </row>
+    <row r="124" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>32</v>
@@ -6186,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
@@ -6199,10 +6578,21 @@
       <c r="I124" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J124" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+    </row>
+    <row r="125" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>32</v>
@@ -6224,10 +6614,27 @@
       <c r="I125" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K125" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+    </row>
+    <row r="126" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>32</v>
@@ -6236,23 +6643,31 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+    </row>
+    <row r="127" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>32</v>
@@ -6261,23 +6676,40 @@
         <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K127" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+    </row>
+    <row r="128" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>32</v>
@@ -6286,23 +6718,31 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+    </row>
+    <row r="129" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>32</v>
@@ -6311,23 +6751,40 @@
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K129" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+    </row>
+    <row r="130" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>32</v>
@@ -6336,21 +6793,38 @@
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+    </row>
+    <row r="131" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>32</v>
@@ -6359,21 +6833,32 @@
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="J131" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+    </row>
+    <row r="132" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>32</v>
@@ -6382,21 +6867,32 @@
         <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="J132" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+    </row>
+    <row r="133" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>32</v>
@@ -6405,36 +6901,47 @@
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="J133" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+    </row>
+    <row r="134" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C134" t="s">
-        <v>554</v>
+      <c r="C134" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>43</v>
@@ -6442,25 +6949,33 @@
       <c r="I134" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+    </row>
+    <row r="135" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C135" t="s">
-        <v>554</v>
+      <c r="C135" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>43</v>
@@ -6468,25 +6983,33 @@
       <c r="I135" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+    </row>
+    <row r="136" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C136" t="s">
-        <v>554</v>
+      <c r="C136" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
@@ -6494,25 +7017,33 @@
       <c r="I136" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+    </row>
+    <row r="137" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C137" t="s">
-        <v>554</v>
+      <c r="C137" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>43</v>
@@ -6520,25 +7051,33 @@
       <c r="I137" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+    </row>
+    <row r="138" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C138" t="s">
-        <v>554</v>
+      <c r="C138" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>43</v>
@@ -6546,25 +7085,34 @@
       <c r="I138" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+    </row>
+    <row r="139" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C139" t="s">
-        <v>554</v>
+      <c r="C139" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>43</v>
@@ -6572,10 +7120,19 @@
       <c r="I139" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+    </row>
+    <row r="140" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>32</v>
@@ -6590,15 +7147,32 @@
         <v>2</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+    </row>
+    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>32</v>
@@ -6613,17 +7187,29 @@
         <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="J141" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+    </row>
+    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>32</v>
@@ -6634,8 +7220,17 @@
       <c r="G142" s="8"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+    </row>
+    <row r="143" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="D143" s="2"/>
@@ -6644,8 +7239,17 @@
       <c r="G143" s="8"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+    </row>
+    <row r="144" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="D144" s="2"/>
@@ -6654,8 +7258,16 @@
       <c r="G144" s="8"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+    </row>
+    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="D145" s="2"/>
       <c r="E145" s="8"/>
@@ -6663,84 +7275,213 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+    </row>
+    <row r="146" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+    </row>
+    <row r="147" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+    </row>
+    <row r="148" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="G148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+    </row>
+    <row r="149" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+    </row>
+    <row r="150" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+    </row>
+    <row r="151" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+    </row>
+    <row r="152" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+    </row>
+    <row r="153" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>50</v>
       </c>
@@ -6763,7 +7504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>53</v>
       </c>
@@ -6786,18 +7527,18 @@
         <v>52</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
@@ -6809,18 +7550,18 @@
         <v>2</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
@@ -6832,13 +7573,13 @@
         <v>24</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>50</v>
       </c>
@@ -6852,46 +7593,46 @@
         <v>43</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O157" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="P157" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="Q157" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="L157" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="O157" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6908,34 +7649,34 @@
         <v>24</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J158" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="L158" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="K158" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="L158" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="M158" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>50</v>
       </c>
@@ -6952,34 +7693,34 @@
         <v>24</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>50</v>
       </c>
@@ -6996,31 +7737,31 @@
         <v>24</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7040,40 +7781,40 @@
         <v>24</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K161" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q161" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="L161" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M161" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="O161" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q161" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7093,31 +7834,31 @@
         <v>24</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7137,16 +7878,16 @@
         <v>24</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7166,31 +7907,31 @@
         <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7207,34 +7948,34 @@
         <v>43</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7251,39 +7992,39 @@
         <v>43</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>32</v>
@@ -7295,34 +8036,34 @@
         <v>55</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I167" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="O167" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M167" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7342,31 +8083,31 @@
         <v>24</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7386,31 +8127,31 @@
         <v>24</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7430,31 +8171,31 @@
         <v>24</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7474,31 +8215,31 @@
         <v>24</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7518,31 +8259,31 @@
         <v>24</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I172" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J172" s="11" t="s">
-        <v>602</v>
+      <c r="I172" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>598</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7562,31 +8303,31 @@
         <v>24</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7594,17 +8335,46 @@
         <v>50</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E174" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G174" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7612,305 +8382,340 @@
         <v>50</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>211</v>
+        <v>698</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="O175" s="2"/>
     </row>
     <row r="176" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>212</v>
+        <v>699</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="O177" s="2"/>
+    </row>
+    <row r="178" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="O179" s="2"/>
+    </row>
+    <row r="180" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A190" s="3"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="H190" s="2"/>
+    </row>
+    <row r="192" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>32</v>
@@ -7919,15 +8724,15 @@
         <v>24</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>32</v>
@@ -7936,15 +8741,15 @@
         <v>24</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>32</v>
@@ -7953,15 +8758,15 @@
         <v>24</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>32</v>
@@ -7969,16 +8774,16 @@
       <c r="C196" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>230</v>
+      <c r="D196" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>32</v>
@@ -7987,15 +8792,15 @@
         <v>24</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>32</v>
@@ -8004,15 +8809,15 @@
         <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>32</v>
@@ -8021,15 +8826,15 @@
         <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>32</v>
@@ -8038,15 +8843,15 @@
         <v>24</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>32</v>
@@ -8055,15 +8860,15 @@
         <v>24</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>32</v>
@@ -8072,15 +8877,15 @@
         <v>24</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>32</v>
@@ -8089,15 +8894,15 @@
         <v>24</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>32</v>
@@ -8106,15 +8911,15 @@
         <v>24</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>32</v>
@@ -8122,16 +8927,16 @@
       <c r="C205" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D205" s="13" t="s">
-        <v>239</v>
+      <c r="D205" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>32</v>
@@ -8140,15 +8945,15 @@
         <v>24</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>32</v>
@@ -8157,15 +8962,15 @@
         <v>24</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>32</v>
@@ -8174,15 +8979,15 @@
         <v>24</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>32</v>
@@ -8191,15 +8996,15 @@
         <v>24</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>32</v>
@@ -8208,15 +9013,15 @@
         <v>24</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>32</v>
@@ -8225,18 +9030,15 @@
         <v>24</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>633</v>
+        <v>235</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>32</v>
@@ -8245,18 +9047,15 @@
         <v>24</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>32</v>
@@ -8264,371 +9063,347 @@
       <c r="C213" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>632</v>
+      <c r="D213" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>252</v>
+        <v>626</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>627</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>255</v>
+        <v>628</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G226" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>258</v>
@@ -8636,16 +9411,19 @@
     </row>
     <row r="232" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>258</v>
@@ -8653,16 +9431,19 @@
     </row>
     <row r="233" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>258</v>
@@ -8670,22 +9451,19 @@
     </row>
     <row r="234" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>258</v>
@@ -8693,45 +9471,42 @@
     </row>
     <row r="235" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>629</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>258</v>
@@ -8739,25 +9514,191 @@
     </row>
     <row r="237" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="D240" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>320</v>
+      <c r="F245" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="704">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -396,9 +396,6 @@
     <t>nl</t>
   </si>
   <si>
-    <t>v+vowel</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -1437,9 +1434,6 @@
     <t>stha</t>
   </si>
   <si>
-    <t>hi stha</t>
-  </si>
-  <si>
     <t>Apo hi ShTha</t>
   </si>
   <si>
@@ -2134,6 +2128,15 @@
   </si>
   <si>
     <t>parAnanu</t>
+  </si>
+  <si>
+    <t>hi ShTha</t>
+  </si>
+  <si>
+    <t>Vowel,SaH</t>
+  </si>
+  <si>
+    <t>v+vowel,SaH</t>
   </si>
 </sst>
 </file>
@@ -2575,10 +2578,10 @@
   <dimension ref="A3:T245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2636,34 +2639,34 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2689,19 +2692,19 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2727,19 +2730,19 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2756,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -2765,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>6</v>
@@ -2777,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2794,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -2803,10 +2806,10 @@
         <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
@@ -2815,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2841,10 +2844,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
@@ -2853,7 +2856,7 @@
         <v>19</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2870,10 +2873,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>702</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>703</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2891,28 +2894,28 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2926,34 +2929,34 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2982,19 +2985,19 @@
         <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -3023,19 +3026,19 @@
         <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.4">
@@ -3052,10 +3055,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>31</v>
@@ -3067,19 +3070,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3107,32 +3110,32 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="S18" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="T18" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3152,17 +3155,17 @@
         <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>34</v>
@@ -3171,22 +3174,22 @@
         <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3203,7 +3206,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>35</v>
@@ -3243,10 +3246,10 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>37</v>
@@ -3256,22 +3259,22 @@
         <v>37</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3298,7 +3301,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>34</v>
@@ -3313,16 +3316,16 @@
         <v>36</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3345,35 +3348,35 @@
         <v>40</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="S23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3464,10 +3467,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -3483,25 +3486,25 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="N30" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="Q30" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3512,10 +3515,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -3531,30 +3534,30 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N31" s="2" t="s">
+      <c r="P31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3573,10 +3576,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -3595,16 +3598,16 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3618,7 +3621,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -3637,16 +3640,16 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3660,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3679,16 +3682,16 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3702,7 +3705,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3721,16 +3724,16 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3744,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -3763,16 +3766,16 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3786,7 +3789,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3805,16 +3808,16 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3828,7 +3831,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -3847,16 +3850,16 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3870,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3889,16 +3892,16 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3909,10 +3912,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -3931,16 +3934,16 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3954,7 +3957,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -3973,16 +3976,16 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3996,7 +3999,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -4026,7 +4029,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -4045,16 +4048,16 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4068,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -4087,16 +4090,16 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4107,10 +4110,10 @@
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -4129,16 +4132,16 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4149,10 +4152,10 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -4171,16 +4174,16 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4194,7 +4197,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -4213,16 +4216,16 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4236,7 +4239,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -4255,16 +4258,16 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4278,7 +4281,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -4297,16 +4300,16 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4317,10 +4320,10 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -4339,16 +4342,16 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4362,7 +4365,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -4381,16 +4384,16 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4415,39 +4418,39 @@
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="M55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4455,13 +4458,13 @@
         <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -4470,24 +4473,24 @@
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="M56" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4495,39 +4498,39 @@
         <v>42</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4535,13 +4538,13 @@
         <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -4550,24 +4553,24 @@
         <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4575,13 +4578,13 @@
         <v>42</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
@@ -4590,24 +4593,24 @@
         <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4615,13 +4618,13 @@
         <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -4630,24 +4633,24 @@
         <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4655,13 +4658,13 @@
         <v>42</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -4670,31 +4673,31 @@
         <v>46</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="N61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="O61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4724,25 +4727,25 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P63" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4768,25 +4771,25 @@
         <v>70</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L64" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>470</v>
+        <v>701</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4812,25 +4815,25 @@
         <v>70</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N65" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4856,25 +4859,25 @@
         <v>70</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="Q66" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
         <v>70</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>26</v>
@@ -4909,7 +4912,7 @@
         <v>6</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4935,7 +4938,7 @@
         <v>70</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>64</v>
@@ -4944,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4970,7 +4973,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>65</v>
@@ -4979,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5005,7 +5008,7 @@
         <v>70</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5031,16 +5034,16 @@
         <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5066,16 +5069,16 @@
         <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5101,30 +5104,30 @@
         <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="D74" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
@@ -5133,39 +5136,39 @@
         <v>46</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
@@ -5174,25 +5177,25 @@
         <v>46</v>
       </c>
       <c r="I75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="L75" s="2" t="s">
+      <c r="P75" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5218,17 +5221,17 @@
         <v>70</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5254,17 +5257,17 @@
         <v>70</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5275,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -5290,17 +5293,17 @@
         <v>70</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L78" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5326,17 +5329,17 @@
         <v>70</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5362,17 +5365,17 @@
         <v>70</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5398,17 +5401,17 @@
         <v>70</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5419,7 +5422,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -5434,25 +5437,25 @@
         <v>70</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M82" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="O82" s="2" t="s">
+      <c r="Q82" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5478,17 +5481,17 @@
         <v>70</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5514,17 +5517,17 @@
         <v>70</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5550,16 +5553,16 @@
         <v>70</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5585,16 +5588,16 @@
         <v>70</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5620,16 +5623,16 @@
         <v>70</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5656,13 +5659,13 @@
         <v>86</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L88" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5688,19 +5691,19 @@
         <v>86</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5711,7 +5714,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>29</v>
@@ -5726,13 +5729,13 @@
         <v>86</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5745,366 +5748,366 @@
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="L105" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6118,7 +6121,7 @@
     </row>
     <row r="112" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>32</v>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="113" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>32</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="115" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>32</v>
@@ -6178,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
@@ -6192,32 +6195,32 @@
         <v>88</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N115" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q115" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
     </row>
     <row r="116" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>32</v>
@@ -6250,7 +6253,7 @@
     </row>
     <row r="117" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>32</v>
@@ -6273,32 +6276,32 @@
         <v>88</v>
       </c>
       <c r="K117" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O117" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="L117" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N117" s="2" t="s">
+      <c r="P117" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="O117" s="2" t="s">
+      <c r="Q117" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>32</v>
@@ -6321,32 +6324,32 @@
         <v>88</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="N118" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="O118" s="2" t="s">
+      <c r="Q118" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>32</v>
@@ -6369,17 +6372,17 @@
         <v>88</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>92</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="120" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>32</v>
@@ -6411,32 +6414,32 @@
         <v>88</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>93</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O120" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q120" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q120" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>32</v>
@@ -6459,17 +6462,17 @@
         <v>88</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>94</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="122" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>32</v>
@@ -6487,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
@@ -6501,17 +6504,17 @@
         <v>88</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -6520,7 +6523,7 @@
     </row>
     <row r="123" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>32</v>
@@ -6543,7 +6546,7 @@
         <v>88</v>
       </c>
       <c r="J123" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -6556,7 +6559,7 @@
     </row>
     <row r="124" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>32</v>
@@ -6579,7 +6582,7 @@
         <v>88</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -6592,7 +6595,7 @@
     </row>
     <row r="125" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>32</v>
@@ -6615,17 +6618,17 @@
         <v>88</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="126" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>32</v>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="127" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>32</v>
@@ -6690,17 +6693,17 @@
         <v>88</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>98</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -6709,7 +6712,7 @@
     </row>
     <row r="128" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>32</v>
@@ -6742,7 +6745,7 @@
     </row>
     <row r="129" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>32</v>
@@ -6765,17 +6768,17 @@
         <v>88</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="130" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>32</v>
@@ -6805,7 +6808,7 @@
         <v>106</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>104</v>
@@ -6815,7 +6818,7 @@
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -6824,7 +6827,7 @@
     </row>
     <row r="131" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>32</v>
@@ -6845,7 +6848,7 @@
         <v>107</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -6858,7 +6861,7 @@
     </row>
     <row r="132" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>32</v>
@@ -6879,7 +6882,7 @@
         <v>111</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -6892,7 +6895,7 @@
     </row>
     <row r="133" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>32</v>
@@ -6913,7 +6916,7 @@
         <v>111</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -6926,13 +6929,13 @@
     </row>
     <row r="134" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>112</v>
@@ -6960,13 +6963,13 @@
     </row>
     <row r="135" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>112</v>
@@ -6994,13 +6997,13 @@
     </row>
     <row r="136" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>112</v>
@@ -7028,13 +7031,13 @@
     </row>
     <row r="137" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>112</v>
@@ -7062,13 +7065,13 @@
     </row>
     <row r="138" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>112</v>
@@ -7097,13 +7100,13 @@
     </row>
     <row r="139" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>112</v>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="140" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>32</v>
@@ -7147,23 +7150,23 @@
         <v>2</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="K140" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -7172,7 +7175,7 @@
     </row>
     <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>32</v>
@@ -7187,15 +7190,15 @@
         <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>32</v>
@@ -7286,29 +7289,29 @@
     </row>
     <row r="146" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
@@ -7317,29 +7320,29 @@
     </row>
     <row r="147" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
@@ -7348,29 +7351,29 @@
     </row>
     <row r="148" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
@@ -7379,29 +7382,29 @@
     </row>
     <row r="149" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -7410,29 +7413,29 @@
     </row>
     <row r="150" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
@@ -7441,29 +7444,29 @@
     </row>
     <row r="151" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
@@ -7527,7 +7530,7 @@
         <v>52</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>57</v>
@@ -7538,7 +7541,7 @@
         <v>50</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
@@ -7550,7 +7553,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>43</v>
@@ -7561,7 +7564,7 @@
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
@@ -7573,7 +7576,7 @@
         <v>24</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>43</v>
@@ -7593,43 +7596,43 @@
         <v>43</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K157" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="L157" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M157" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="N157" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="O157" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="L157" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M157" s="2" t="s">
+      <c r="P157" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="O157" s="2" t="s">
+      <c r="Q157" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7649,31 +7652,31 @@
         <v>24</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K158" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O158" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="L158" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="M158" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7693,31 +7696,31 @@
         <v>24</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I159" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="O159" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L159" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="M159" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7737,31 +7740,31 @@
         <v>24</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7781,40 +7784,40 @@
         <v>24</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K161" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="N161" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="L161" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="O161" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="P161" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q161" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="O161" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q161" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7834,31 +7837,31 @@
         <v>24</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7878,16 +7881,16 @@
         <v>24</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7907,31 +7910,31 @@
         <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7948,34 +7951,34 @@
         <v>43</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7992,39 +7995,39 @@
         <v>43</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>32</v>
@@ -8036,34 +8039,34 @@
         <v>55</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I167" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K167" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J167" s="2" t="s">
+      <c r="L167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M167" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M167" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8083,31 +8086,31 @@
         <v>24</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8127,31 +8130,31 @@
         <v>24</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8171,31 +8174,31 @@
         <v>24</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8215,31 +8218,31 @@
         <v>24</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8259,31 +8262,31 @@
         <v>24</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8303,31 +8306,31 @@
         <v>24</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8338,10 +8341,10 @@
         <v>32</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
@@ -8350,31 +8353,31 @@
         <v>51</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L174" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N174" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="O174" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="O174" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="P174" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q174" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="Q174" s="2" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8385,10 +8388,10 @@
         <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
@@ -8397,7 +8400,7 @@
         <v>51</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -8412,39 +8415,39 @@
         <v>50</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="O176" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="L176" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="M176" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="O176" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8500,17 +8503,17 @@
         <v>50</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8518,16 +8521,16 @@
         <v>50</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8535,16 +8538,16 @@
         <v>50</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8552,16 +8555,16 @@
         <v>50</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8569,16 +8572,16 @@
         <v>50</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8586,16 +8589,16 @@
         <v>50</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8603,16 +8606,16 @@
         <v>50</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8620,7 +8623,7 @@
         <v>50</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>28</v>
@@ -8635,7 +8638,7 @@
         <v>30</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8643,7 +8646,7 @@
         <v>50</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>28</v>
@@ -8655,10 +8658,10 @@
         <v>24</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8666,25 +8669,25 @@
         <v>50</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8698,41 +8701,41 @@
     </row>
     <row r="192" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>32</v>
@@ -8744,420 +8747,420 @@
         <v>94</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>32</v>
@@ -9166,18 +9169,18 @@
         <v>24</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>32</v>
@@ -9186,18 +9189,18 @@
         <v>24</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="G220" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>32</v>
@@ -9206,292 +9209,292 @@
         <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="G225" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="G235" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>32</v>
@@ -9500,21 +9503,21 @@
         <v>24</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>32</v>
@@ -9523,21 +9526,21 @@
         <v>24</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>32</v>
@@ -9546,159 +9549,159 @@
         <v>59</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="G242" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="713">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -2133,10 +2133,37 @@
     <t>hi ShTha</t>
   </si>
   <si>
-    <t>Vowel,SaH</t>
-  </si>
-  <si>
-    <t>v+vowel,SaH</t>
+    <t>Buja</t>
+  </si>
+  <si>
+    <t>parib</t>
+  </si>
+  <si>
+    <t>paribBuja</t>
+  </si>
+  <si>
+    <t>v+vowel</t>
+  </si>
+  <si>
+    <t>last letter</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>Vikruti</t>
+  </si>
+  <si>
+    <t>hotA</t>
+  </si>
+  <si>
+    <t>hotav</t>
   </si>
 </sst>
 </file>
@@ -2575,19 +2602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T245"/>
+  <dimension ref="A3:T247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.796875" customWidth="1"/>
     <col min="6" max="6" width="21.09765625" customWidth="1"/>
@@ -2873,10 +2901,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>702</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2920,7 +2948,7 @@
     </row>
     <row r="13" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -2929,34 +2957,32 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>310</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>312</v>
+        <v>703</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>311</v>
+        <v>702</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>313</v>
+        <v>494</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>310</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>314</v>
+        <v>702</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>315</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -2967,37 +2993,37 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>277</v>
+        <v>312</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
@@ -3011,7 +3037,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -3026,173 +3052,157 @@
         <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>305</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:20" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.4">
+      <c r="A18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="19" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -3206,31 +3216,36 @@
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="L20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>327</v>
+      </c>
       <c r="O20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -3246,29 +3261,38 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>343</v>
+        <v>35</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>282</v>
@@ -3291,42 +3315,31 @@
         <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3336,41 +3349,35 @@
         <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K23" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>282</v>
@@ -3379,58 +3386,106 @@
         <v>282</v>
       </c>
     </row>
+    <row r="24" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>47</v>
+        <v>341</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3450,125 +3505,118 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -3576,10 +3624,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -3587,9 +3635,6 @@
       <c r="F33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>44</v>
       </c>
@@ -3598,61 +3643,41 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3660,10 +3685,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>148</v>
+        <v>349</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3682,19 +3707,19 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3724,19 +3749,19 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -3746,8 +3771,8 @@
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>150</v>
+      <c r="D37" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -3766,19 +3791,19 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -3789,7 +3814,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3808,19 +3833,19 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -3830,8 +3855,8 @@
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>152</v>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -3850,19 +3875,19 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>152</v>
+        <v>353</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>395</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -3872,8 +3897,8 @@
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>153</v>
+      <c r="D40" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3892,19 +3917,19 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>153</v>
+        <v>354</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -3912,10 +3937,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>24</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -3934,19 +3959,19 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>400</v>
+        <v>355</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +3981,8 @@
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>155</v>
+      <c r="D42" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -3976,19 +4001,19 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>155</v>
+        <v>356</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3996,10 +4021,10 @@
         <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>156</v>
+        <v>349</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -4017,8 +4042,20 @@
         <v>47</v>
       </c>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4066,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -4048,19 +4085,19 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4107,8 @@
       <c r="C45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>408</v>
+      <c r="D45" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -4089,20 +4126,8 @@
         <v>47</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -4110,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>346</v>
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -4132,19 +4157,19 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -4152,10 +4177,10 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>349</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -4174,19 +4199,19 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -4194,10 +4219,10 @@
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>349</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -4216,16 +4241,16 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>159</v>
+        <v>409</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4236,10 +4261,10 @@
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -4258,16 +4283,16 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4281,13 +4306,13 @@
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>43</v>
@@ -4296,20 +4321,20 @@
         <v>44</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4320,16 +4345,16 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>43</v>
@@ -4338,20 +4363,20 @@
         <v>44</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4365,7 +4390,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -4384,114 +4409,118 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="54" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="55" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="56" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>424</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>437</v>
-      </c>
     </row>
     <row r="57" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -4504,33 +4533,33 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4544,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -4556,21 +4585,21 @@
         <v>139</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4584,33 +4613,33 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4624,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -4636,21 +4665,21 @@
         <v>139</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4664,133 +4693,124 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="63" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="K63" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -4803,7 +4823,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -4814,26 +4834,27 @@
       <c r="I65" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>472</v>
+        <v>60</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4847,7 +4868,7 @@
         <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -4859,25 +4880,25 @@
         <v>70</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>26</v>
+        <v>467</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>477</v>
+        <v>61</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>478</v>
+        <v>701</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4891,7 +4912,7 @@
         <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -4903,16 +4924,25 @@
         <v>70</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="L67" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>6</v>
+      <c r="N67" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>628</v>
+        <v>472</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4926,7 +4956,7 @@
         <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -4938,16 +4968,25 @@
         <v>70</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>64</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4961,7 +5000,7 @@
         <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
@@ -4973,42 +5012,51 @@
         <v>70</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="17" t="s">
+      <c r="D70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5022,7 +5070,7 @@
         <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
@@ -5034,51 +5082,42 @@
         <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>482</v>
+        <v>6</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5092,7 +5131,7 @@
         <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -5104,109 +5143,100 @@
         <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>142</v>
+        <v>58</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>487</v>
+        <v>68</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>490</v>
+        <v>69</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -5214,35 +5244,40 @@
       <c r="F76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>70</v>
+      <c r="I76" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>503</v>
+        <v>324</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>71</v>
+        <v>487</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="O76" s="2" t="s">
-        <v>505</v>
+        <v>488</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>140</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
@@ -5250,24 +5285,26 @@
       <c r="F77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>70</v>
+      <c r="I77" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>72</v>
+        <v>490</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="O77" s="2" t="s">
-        <v>508</v>
+        <v>144</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5278,7 +5315,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>510</v>
+        <v>71</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -5293,17 +5330,17 @@
         <v>70</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5314,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
@@ -5329,17 +5366,17 @@
         <v>70</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>513</v>
+        <v>72</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>377</v>
+        <v>507</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5350,7 +5387,7 @@
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>74</v>
+        <v>510</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
@@ -5365,17 +5402,17 @@
         <v>70</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>74</v>
+        <v>509</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5386,7 +5423,7 @@
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
@@ -5401,17 +5438,17 @@
         <v>70</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>75</v>
+        <v>513</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5422,7 +5459,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>517</v>
+        <v>74</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -5437,25 +5474,17 @@
         <v>70</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5466,7 +5495,7 @@
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
@@ -5481,17 +5510,17 @@
         <v>70</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>395</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5501,8 +5530,8 @@
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>77</v>
+      <c r="D84" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
@@ -5517,17 +5546,25 @@
         <v>70</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="M84" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5538,7 +5575,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>12</v>
@@ -5553,16 +5590,17 @@
         <v>70</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5572,8 +5610,8 @@
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>79</v>
+      <c r="D86" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
@@ -5588,16 +5626,17 @@
         <v>70</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5608,7 +5647,7 @@
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
@@ -5623,16 +5662,16 @@
         <v>70</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>527</v>
+        <v>395</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5643,29 +5682,31 @@
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>531</v>
+      <c r="H88" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>533</v>
+        <v>502</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5676,34 +5717,31 @@
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>531</v>
+      <c r="H89" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5714,7 +5752,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>29</v>
@@ -5725,6 +5763,7 @@
       <c r="G90" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
         <v>86</v>
       </c>
@@ -5732,68 +5771,104 @@
         <v>531</v>
       </c>
       <c r="K90" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L90" s="19" t="s">
+      <c r="L92" s="19" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I92" s="2"/>
-    </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A93" s="3"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>176</v>
+      <c r="A94" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>139</v>
@@ -5810,7 +5885,7 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>139</v>
@@ -5827,7 +5902,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>139</v>
@@ -5844,7 +5919,7 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>139</v>
@@ -5861,7 +5936,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>139</v>
@@ -5878,7 +5953,7 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>139</v>
@@ -5895,7 +5970,7 @@
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>139</v>
@@ -5912,7 +5987,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>139</v>
@@ -5929,7 +6004,7 @@
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>139</v>
@@ -5946,7 +6021,7 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>139</v>
@@ -5963,7 +6038,7 @@
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>139</v>
@@ -5977,40 +6052,15 @@
       <c r="B105" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C105" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>538</v>
+        <v>348</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>539</v>
-      </c>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -6020,11 +6070,9 @@
         <v>132</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>541</v>
+        <v>175</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>139</v>
@@ -6038,17 +6086,40 @@
       <c r="B107" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="108" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
@@ -6057,28 +6128,17 @@
       <c r="B108" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>543</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="I108" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>551</v>
-      </c>
+      <c r="G108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -6087,169 +6147,137 @@
       <c r="B109" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>543</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="I109" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="I110" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="I111" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="I110" s="2"/>
-    </row>
     <row r="112" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="3"/>
+      <c r="B112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="114" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="3" t="s">
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C115" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
+      <c r="C115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -6262,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>90</v>
+        <v>643</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
@@ -6276,25 +6304,25 @@
         <v>88</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>633</v>
+        <v>454</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>248</v>
+        <v>629</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -6310,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
@@ -6323,27 +6351,12 @@
       <c r="I118" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>642</v>
-      </c>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
     </row>
@@ -6358,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
@@ -6372,20 +6385,26 @@
         <v>88</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>634</v>
+      </c>
       <c r="O119" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
     </row>
@@ -6400,7 +6419,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
@@ -6414,25 +6433,25 @@
         <v>88</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>248</v>
+        <v>634</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -6448,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
@@ -6462,17 +6481,17 @@
         <v>88</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -6490,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>654</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
@@ -6504,20 +6523,26 @@
         <v>88</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>654</v>
+        <v>93</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="O122" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
     </row>
@@ -6532,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
@@ -6545,13 +6570,19 @@
       <c r="I123" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J123" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+      <c r="O123" s="2" t="s">
+        <v>652</v>
+      </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -6568,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>654</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
@@ -6581,13 +6612,19 @@
       <c r="I124" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J124" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
+      <c r="K124" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>634</v>
+      </c>
       <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
+      <c r="O124" s="2" t="s">
+        <v>655</v>
+      </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
@@ -6604,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
@@ -6617,19 +6654,13 @@
       <c r="I125" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K125" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>657</v>
-      </c>
+      <c r="J125" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
-      <c r="O125" s="2" t="s">
-        <v>658</v>
-      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
@@ -6646,18 +6677,21 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="J126" s="19" t="s">
+        <v>665</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -6679,13 +6713,13 @@
         <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -6693,17 +6727,17 @@
         <v>88</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -6721,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
@@ -6754,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
@@ -6768,17 +6802,17 @@
         <v>88</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>630</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -6796,30 +6830,23 @@
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E130" t="s">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
-      <c r="O130" s="2" t="s">
-        <v>664</v>
-      </c>
+      <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
@@ -6836,24 +6863,32 @@
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J131" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
+      <c r="O131" s="2" t="s">
+        <v>662</v>
+      </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
@@ -6870,24 +6905,30 @@
         <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J132" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+      <c r="O132" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
@@ -6904,19 +6945,19 @@
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -6934,23 +6975,23 @@
       <c r="B134" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>548</v>
+      <c r="C134" t="s">
+        <v>2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="J134" s="19" t="s">
+        <v>666</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -6968,23 +7009,23 @@
       <c r="B135" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>548</v>
+      <c r="C135" t="s">
+        <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="J135" s="19" t="s">
+        <v>666</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -7012,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
@@ -7046,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>43</v>
@@ -7080,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>43</v>
@@ -7088,7 +7129,6 @@
       <c r="I138" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -7115,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>43</v>
@@ -7123,7 +7163,6 @@
       <c r="I139" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -7140,65 +7179,58 @@
       <c r="B140" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C140" t="s">
-        <v>24</v>
+      <c r="C140" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
-      <c r="O140" s="2" t="s">
-        <v>668</v>
-      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C141" t="s">
-        <v>24</v>
+      <c r="C141" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>24</v>
+        <v>112</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J141" s="19" t="s">
-        <v>665</v>
+        <v>88</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -7210,38 +7242,73 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+      <c r="O142" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
     </row>
     <row r="143" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A143" s="3"/>
-      <c r="B143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="2"/>
+      <c r="A143" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G143" s="8"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+      <c r="I143" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J143" s="19" t="s">
+        <v>665</v>
+      </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -7253,14 +7320,19 @@
       <c r="S143" s="2"/>
     </row>
     <row r="144" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="8"/>
       <c r="F144" s="2"/>
       <c r="G144" s="8"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
+      <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -7272,12 +7344,14 @@
     </row>
     <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
+      <c r="B145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
+      <c r="F145" s="2"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
+      <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -7287,63 +7361,36 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>678</v>
-      </c>
+    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="3"/>
+      <c r="B146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
-      <c r="O146" s="2" t="s">
-        <v>679</v>
-      </c>
+      <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>677</v>
-      </c>
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="3"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
-      <c r="O147" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
@@ -7357,23 +7404,23 @@
         <v>132</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>185</v>
+        <v>678</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
@@ -7388,23 +7435,23 @@
         <v>132</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>100</v>
+        <v>676</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>186</v>
+        <v>677</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -7419,23 +7466,23 @@
         <v>132</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>675</v>
+        <v>100</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
@@ -7449,24 +7496,24 @@
       <c r="B151" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D151" s="19" t="s">
-        <v>669</v>
+      <c r="D151" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>676</v>
+        <v>100</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>685</v>
+        <v>186</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
@@ -7474,11 +7521,31 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
+      <c r="A152" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
+      <c r="O152" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
@@ -7486,62 +7553,52 @@
     </row>
     <row r="153" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
     </row>
     <row r="155" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
@@ -7550,21 +7607,21 @@
         <v>54</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
@@ -7573,13 +7630,19 @@
         <v>55</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7587,52 +7650,22 @@
         <v>50</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="O157" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7640,43 +7673,22 @@
         <v>50</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K158" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="L158" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7693,10 +7705,10 @@
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>206</v>
@@ -7705,22 +7717,31 @@
         <v>43</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>566</v>
+        <v>555</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7740,7 +7761,7 @@
         <v>24</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>206</v>
@@ -7749,22 +7770,22 @@
         <v>43</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>370</v>
+        <v>563</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7784,7 +7805,7 @@
         <v>24</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>206</v>
@@ -7793,31 +7814,22 @@
         <v>43</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>193</v>
+        <v>566</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q161" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7837,7 +7849,7 @@
         <v>24</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>206</v>
@@ -7846,22 +7858,22 @@
         <v>43</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7880,8 +7892,8 @@
       <c r="E163" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F163" s="11" t="s">
-        <v>195</v>
+      <c r="F163" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>206</v>
@@ -7889,8 +7901,32 @@
       <c r="H163" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="I163" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="K163" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7910,7 +7946,7 @@
         <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>206</v>
@@ -7919,22 +7955,22 @@
         <v>43</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7951,10 +7987,10 @@
         <v>43</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>197</v>
+        <v>24</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>206</v>
@@ -7962,23 +7998,8 @@
       <c r="H165" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I165" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="K165" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="L165" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7995,10 +8016,10 @@
         <v>43</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>597</v>
+        <v>24</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>580</v>
+        <v>196</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>206</v>
@@ -8007,27 +8028,27 @@
         <v>43</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>600</v>
+        <v>196</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>599</v>
+        <v>196</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>602</v>
+        <v>50</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>32</v>
@@ -8036,37 +8057,37 @@
         <v>28</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>597</v>
+        <v>205</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>603</v>
+        <v>197</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>604</v>
+        <v>206</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>605</v>
+        <v>197</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>608</v>
+        <v>197</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8083,10 +8104,10 @@
         <v>43</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>198</v>
+        <v>580</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>206</v>
@@ -8095,27 +8116,27 @@
         <v>43</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>198</v>
+        <v>600</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>610</v>
+        <v>370</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>198</v>
+        <v>599</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>50</v>
+        <v>602</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>32</v>
@@ -8124,37 +8145,37 @@
         <v>28</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>199</v>
+        <v>603</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>206</v>
+        <v>604</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>199</v>
+        <v>605</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>611</v>
+        <v>155</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>199</v>
+        <v>608</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8174,7 +8195,7 @@
         <v>24</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>206</v>
@@ -8183,22 +8204,22 @@
         <v>43</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8218,7 +8239,7 @@
         <v>24</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>206</v>
@@ -8227,22 +8248,22 @@
         <v>43</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>150</v>
+        <v>611</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8261,8 +8282,8 @@
       <c r="E172" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F172" s="10" t="s">
-        <v>202</v>
+      <c r="F172" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>206</v>
@@ -8270,23 +8291,23 @@
       <c r="H172" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I172" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="J172" s="10" t="s">
-        <v>596</v>
+      <c r="I172" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M172" s="11" t="s">
-        <v>202</v>
+        <v>612</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8306,7 +8327,7 @@
         <v>24</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>206</v>
@@ -8315,22 +8336,22 @@
         <v>43</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>614</v>
+        <v>150</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8341,43 +8362,40 @@
         <v>32</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>690</v>
+        <v>43</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
+      <c r="H174" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>596</v>
+      </c>
       <c r="K174" s="2" t="s">
-        <v>691</v>
+        <v>593</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M174" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>692</v>
+        <v>613</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="P174" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q174" s="2" t="s">
-        <v>695</v>
+        <v>619</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8388,76 +8406,111 @@
         <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>696</v>
+        <v>43</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="O175" s="2"/>
+      <c r="H175" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="176" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>688</v>
+        <v>51</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>697</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>697</v>
+        <v>34</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>699</v>
+        <v>156</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
+      <c r="A177" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -8467,20 +8520,44 @@
       <c r="O177" s="2"/>
     </row>
     <row r="178" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="A178" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="O178" s="2"/>
+      <c r="K178" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="179" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
@@ -8499,39 +8576,36 @@
       <c r="O179" s="2"/>
     </row>
     <row r="180" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A180" s="3"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-      <c r="G180" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="O180" s="2"/>
     </row>
     <row r="181" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="A181" s="3"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="O181" s="2"/>
     </row>
     <row r="182" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
@@ -8544,10 +8618,11 @@
         <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8561,10 +8636,10 @@
         <v>24</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8578,10 +8653,10 @@
         <v>24</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8595,10 +8670,10 @@
         <v>24</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8612,10 +8687,10 @@
         <v>24</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8626,19 +8701,13 @@
         <v>132</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>139</v>
+        <v>212</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8649,19 +8718,13 @@
         <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>139</v>
+        <v>213</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8672,66 +8735,78 @@
         <v>132</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>687</v>
+        <v>43</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>689</v>
+        <v>30</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="A190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="192" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="A192" s="3"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="H192" s="2"/>
     </row>
     <row r="194" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
@@ -8744,7 +8819,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>216</v>
@@ -8761,7 +8836,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>216</v>
@@ -8777,8 +8852,8 @@
       <c r="C196" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D196" s="13" t="s">
-        <v>220</v>
+      <c r="D196" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>216</v>
@@ -8795,7 +8870,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>216</v>
@@ -8811,8 +8886,8 @@
       <c r="C198" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>190</v>
+      <c r="D198" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>216</v>
@@ -8829,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>216</v>
@@ -8846,7 +8921,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>216</v>
@@ -8863,7 +8938,7 @@
         <v>24</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>216</v>
@@ -8880,7 +8955,7 @@
         <v>24</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>216</v>
@@ -8897,7 +8972,7 @@
         <v>24</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>216</v>
@@ -8914,7 +8989,7 @@
         <v>24</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>216</v>
@@ -8931,7 +9006,7 @@
         <v>24</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>216</v>
@@ -8948,7 +9023,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>216</v>
@@ -8965,7 +9040,7 @@
         <v>24</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>216</v>
@@ -8982,7 +9057,7 @@
         <v>24</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>216</v>
@@ -8999,7 +9074,7 @@
         <v>24</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>216</v>
@@ -9016,7 +9091,7 @@
         <v>24</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>216</v>
@@ -9033,7 +9108,7 @@
         <v>24</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>216</v>
@@ -9050,7 +9125,7 @@
         <v>24</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>216</v>
@@ -9066,8 +9141,8 @@
       <c r="C213" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="13" t="s">
-        <v>236</v>
+      <c r="D213" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>216</v>
@@ -9084,7 +9159,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>216</v>
@@ -9100,8 +9175,8 @@
       <c r="C215" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>238</v>
+      <c r="D215" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>216</v>
@@ -9118,7 +9193,7 @@
         <v>24</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>216</v>
@@ -9135,7 +9210,7 @@
         <v>24</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>216</v>
@@ -9152,7 +9227,7 @@
         <v>24</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>624</v>
+        <v>239</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>216</v>
@@ -9169,13 +9244,10 @@
         <v>24</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>627</v>
+        <v>240</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9189,16 +9261,13 @@
         <v>24</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>243</v>
+        <v>624</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>215</v>
       </c>
@@ -9209,13 +9278,10 @@
         <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>626</v>
+        <v>241</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>244</v>
@@ -9229,16 +9295,19 @@
         <v>32</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>215</v>
       </c>
@@ -9246,10 +9315,16 @@
         <v>32</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>244</v>
@@ -9266,7 +9341,7 @@
         <v>247</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>244</v>
@@ -9283,13 +9358,10 @@
         <v>247</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9303,13 +9375,10 @@
         <v>247</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9326,7 +9395,7 @@
         <v>256</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>257</v>
@@ -9346,7 +9415,7 @@
         <v>256</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>257</v>
@@ -9366,7 +9435,7 @@
         <v>256</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>257</v>
@@ -9386,7 +9455,7 @@
         <v>256</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>257</v>
@@ -9406,7 +9475,7 @@
         <v>256</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>257</v>
@@ -9426,7 +9495,7 @@
         <v>256</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>257</v>
@@ -9446,7 +9515,7 @@
         <v>256</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>257</v>
@@ -9463,10 +9532,10 @@
         <v>247</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>257</v>
@@ -9483,10 +9552,10 @@
         <v>247</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>257</v>
@@ -9500,16 +9569,13 @@
         <v>32</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>257</v>
@@ -9523,16 +9589,13 @@
         <v>32</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>257</v>
@@ -9546,16 +9609,16 @@
         <v>32</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>257</v>
@@ -9566,16 +9629,22 @@
         <v>215</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9583,16 +9652,22 @@
         <v>215</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>245</v>
+        <v>264</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9603,10 +9678,10 @@
         <v>132</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>255</v>
@@ -9620,16 +9695,10 @@
         <v>132</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>255</v>
@@ -9646,16 +9715,10 @@
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>623</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9666,16 +9729,16 @@
         <v>132</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>255</v>
@@ -9692,15 +9755,61 @@
         <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="F247" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="G247" s="2" t="s">
         <v>317</v>
       </c>
     </row>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3669,10 +3669,10 @@
   <dimension ref="A3:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12494,7 +12494,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>191</v>
       </c>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3827,7 +3827,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A246" sqref="A246:XFD246"/>
+      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3824,10 +3824,10 @@
   <dimension ref="A3:V286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomRight" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3369,13 +3369,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3496,51 +3502,51 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3824,34 +3830,34 @@
   <dimension ref="A3:V286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="20.3984375" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
     <col min="15" max="15" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -3860,14 +3866,14 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1048</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -4442,7 +4448,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4450,7 +4456,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>652</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>652</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>652</v>
       </c>
@@ -4589,7 +4595,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>652</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>652</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>652</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
@@ -4763,7 +4769,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:20" s="13" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -4939,7 +4945,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>38</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>38</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>38</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>38</v>
       </c>
@@ -5099,7 +5105,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>38</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>38</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>38</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>38</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>38</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>38</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>38</v>
       </c>
@@ -5447,7 +5453,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -5479,7 +5485,7 @@
       <c r="M48" s="2"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>38</v>
       </c>
@@ -5511,7 +5517,7 @@
       <c r="M49" s="2"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>38</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>38</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>38</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>38</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>38</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>38</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>38</v>
       </c>
@@ -5791,10 +5797,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5806,7 +5812,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>38</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>38</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>38</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>38</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>38</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>38</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>38</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>38</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>38</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>38</v>
       </c>
@@ -6220,10 +6226,10 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>60</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>60</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>60</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>60</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>60</v>
       </c>
@@ -6470,7 +6476,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>60</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>60</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>60</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>121</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>121</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>681</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>681</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>681</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>681</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>681</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>681</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>681</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>681</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>681</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>681</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>681</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>681</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>681</v>
       </c>
@@ -7233,7 +7239,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>681</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>681</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7311,7 +7317,7 @@
       <c r="G98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>60</v>
       </c>
@@ -7331,7 +7337,7 @@
       </c>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>60</v>
       </c>
@@ -7350,7 +7356,7 @@
       </c>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>60</v>
       </c>
@@ -7369,7 +7375,7 @@
       </c>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>60</v>
       </c>
@@ -7388,7 +7394,7 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>60</v>
       </c>
@@ -7407,7 +7413,7 @@
       </c>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>60</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>60</v>
       </c>
@@ -7457,7 +7463,7 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>60</v>
       </c>
@@ -7476,7 +7482,7 @@
       </c>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>60</v>
       </c>
@@ -7495,7 +7501,7 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>60</v>
       </c>
@@ -7514,7 +7520,7 @@
       </c>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>60</v>
       </c>
@@ -7533,7 +7539,7 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>60</v>
       </c>
@@ -7552,7 +7558,7 @@
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>60</v>
       </c>
@@ -7571,7 +7577,7 @@
       </c>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>60</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>60</v>
       </c>
@@ -7634,7 +7640,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>60</v>
       </c>
@@ -7653,7 +7659,7 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>60</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>60</v>
       </c>
@@ -7713,7 +7719,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>60</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>60</v>
       </c>
@@ -7785,7 +7791,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>60</v>
       </c>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>60</v>
       </c>
@@ -7861,7 +7867,7 @@
       </c>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>60</v>
       </c>
@@ -7899,7 +7905,7 @@
       </c>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>60</v>
       </c>
@@ -7937,7 +7943,7 @@
       </c>
       <c r="P122" s="2"/>
     </row>
-    <row r="124" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>151</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>151</v>
       </c>
@@ -7985,10 +7991,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
@@ -8036,7 +8042,7 @@
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>152</v>
       </c>
@@ -8069,7 +8075,7 @@
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>152</v>
       </c>
@@ -8117,7 +8123,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>152</v>
       </c>
@@ -8165,7 +8171,7 @@
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
@@ -8207,7 +8213,7 @@
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
     </row>
-    <row r="132" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>152</v>
       </c>
@@ -8255,7 +8261,7 @@
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>152</v>
       </c>
@@ -8297,7 +8303,7 @@
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>152</v>
       </c>
@@ -8339,7 +8345,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>152</v>
       </c>
@@ -8375,7 +8381,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>152</v>
       </c>
@@ -8411,7 +8417,7 @@
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
     </row>
-    <row r="137" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>152</v>
       </c>
@@ -8453,7 +8459,7 @@
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
     </row>
-    <row r="138" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
@@ -8486,7 +8492,7 @@
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
@@ -8528,7 +8534,7 @@
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>152</v>
       </c>
@@ -8561,7 +8567,7 @@
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>152</v>
       </c>
@@ -8603,7 +8609,7 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>152</v>
       </c>
@@ -8643,7 +8649,7 @@
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -8677,7 +8683,7 @@
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
     </row>
-    <row r="144" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>152</v>
       </c>
@@ -8711,7 +8717,7 @@
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>152</v>
       </c>
@@ -8745,7 +8751,7 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>152</v>
       </c>
@@ -8779,7 +8785,7 @@
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>152</v>
       </c>
@@ -8813,7 +8819,7 @@
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>152</v>
       </c>
@@ -8847,7 +8853,7 @@
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
     </row>
-    <row r="149" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>152</v>
       </c>
@@ -8881,7 +8887,7 @@
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
     </row>
-    <row r="150" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
@@ -8916,7 +8922,7 @@
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -8951,7 +8957,7 @@
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
@@ -8991,7 +8997,7 @@
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
@@ -9028,7 +9034,7 @@
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="D154" s="2"/>
@@ -9047,7 +9053,7 @@
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="D155" s="2"/>
@@ -9066,7 +9072,7 @@
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="D156" s="2"/>
@@ -9084,7 +9090,7 @@
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="D157" s="2"/>
       <c r="E157" s="6"/>
@@ -9101,7 +9107,7 @@
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
     </row>
-    <row r="158" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>152</v>
       </c>
@@ -9132,7 +9138,7 @@
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
     </row>
-    <row r="159" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>152</v>
       </c>
@@ -9163,7 +9169,7 @@
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
     </row>
-    <row r="160" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>152</v>
       </c>
@@ -9194,7 +9200,7 @@
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
     </row>
-    <row r="161" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>152</v>
       </c>
@@ -9225,7 +9231,7 @@
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
     </row>
-    <row r="162" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>152</v>
       </c>
@@ -9256,7 +9262,7 @@
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
     </row>
-    <row r="163" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>152</v>
       </c>
@@ -9287,7 +9293,7 @@
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
     </row>
-    <row r="164" spans="1:22" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>152</v>
       </c>
@@ -9324,7 +9330,7 @@
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
     </row>
-    <row r="165" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
         <v>152</v>
       </c>
@@ -9363,7 +9369,7 @@
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
     </row>
-    <row r="166" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="5"/>
@@ -9380,7 +9386,7 @@
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
     </row>
-    <row r="167" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="D167" s="16"/>
@@ -9395,7 +9401,7 @@
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
     </row>
-    <row r="168" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -9409,7 +9415,7 @@
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
     </row>
-    <row r="169" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>46</v>
       </c>
@@ -9455,7 +9461,7 @@
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
     </row>
-    <row r="170" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>48</v>
       </c>
@@ -9502,7 +9508,7 @@
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
     </row>
-    <row r="171" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>48</v>
       </c>
@@ -9547,7 +9553,7 @@
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
     </row>
-    <row r="172" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>46</v>
       </c>
@@ -9590,7 +9596,7 @@
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
     </row>
-    <row r="173" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>46</v>
       </c>
@@ -9633,7 +9639,7 @@
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
     </row>
-    <row r="174" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>46</v>
       </c>
@@ -9676,7 +9682,7 @@
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
     </row>
-    <row r="175" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>46</v>
       </c>
@@ -9728,7 +9734,7 @@
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
     </row>
-    <row r="176" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>46</v>
       </c>
@@ -9773,7 +9779,7 @@
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
     </row>
-    <row r="177" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>46</v>
       </c>
@@ -9818,7 +9824,7 @@
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
     </row>
-    <row r="178" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>46</v>
       </c>
@@ -9863,7 +9869,7 @@
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
     </row>
-    <row r="179" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>46</v>
       </c>
@@ -9909,7 +9915,7 @@
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
     </row>
-    <row r="180" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>46</v>
       </c>
@@ -9955,7 +9961,7 @@
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
     </row>
-    <row r="181" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>46</v>
       </c>
@@ -10001,7 +10007,7 @@
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
     </row>
-    <row r="182" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>46</v>
       </c>
@@ -10047,7 +10053,7 @@
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
     </row>
-    <row r="183" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>46</v>
       </c>
@@ -10093,7 +10099,7 @@
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
     </row>
-    <row r="184" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>46</v>
       </c>
@@ -10139,7 +10145,7 @@
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
     </row>
-    <row r="185" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>46</v>
       </c>
@@ -10185,7 +10191,7 @@
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
     </row>
-    <row r="186" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>46</v>
       </c>
@@ -10231,7 +10237,7 @@
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
     </row>
-    <row r="187" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>46</v>
       </c>
@@ -10277,7 +10283,7 @@
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
     </row>
-    <row r="188" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>46</v>
       </c>
@@ -10323,7 +10329,7 @@
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
     </row>
-    <row r="189" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>46</v>
       </c>
@@ -10369,7 +10375,7 @@
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
     </row>
-    <row r="190" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>46</v>
       </c>
@@ -10415,7 +10421,7 @@
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
     </row>
-    <row r="191" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>46</v>
       </c>
@@ -10457,7 +10463,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>46</v>
       </c>
@@ -10499,7 +10505,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>46</v>
       </c>
@@ -10541,7 +10547,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10550,7 +10556,7 @@
       <c r="F194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>46</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>46</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>46</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>46</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>46</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>46</v>
       </c>
@@ -10820,7 +10826,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="31" t="s">
         <v>46</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>46</v>
       </c>
@@ -10904,7 +10910,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>46</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>46</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>545</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>46</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>46</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>46</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>46</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>46</v>
       </c>
@@ -11240,7 +11246,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>46</v>
       </c>
@@ -11282,7 +11288,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>46</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>46</v>
       </c>
@@ -11362,7 +11368,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>46</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11418,7 +11424,7 @@
       <c r="M215" s="2"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>46</v>
       </c>
@@ -11451,7 +11457,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>46</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>46</v>
       </c>
@@ -11515,7 +11521,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>46</v>
       </c>
@@ -11547,7 +11553,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>46</v>
       </c>
@@ -11579,7 +11585,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>46</v>
       </c>
@@ -11611,7 +11617,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>46</v>
       </c>
@@ -11643,7 +11649,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>46</v>
       </c>
@@ -11681,7 +11687,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>46</v>
       </c>
@@ -11719,7 +11725,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>46</v>
       </c>
@@ -11766,7 +11772,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11775,7 +11781,7 @@
       <c r="F226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="228" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>187</v>
       </c>
@@ -11804,7 +11810,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>187</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>187</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>187</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>187</v>
       </c>
@@ -11920,7 +11926,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>187</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>187</v>
       </c>
@@ -11978,7 +11984,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>187</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>187</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>187</v>
       </c>
@@ -12041,7 +12047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>187</v>
       </c>
@@ -12070,7 +12076,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>187</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>187</v>
       </c>
@@ -12128,7 +12134,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>187</v>
       </c>
@@ -12157,7 +12163,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>187</v>
       </c>
@@ -12186,7 +12192,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>187</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>187</v>
       </c>
@@ -12244,7 +12250,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>187</v>
       </c>
@@ -12273,7 +12279,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>187</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>187</v>
       </c>
@@ -12331,7 +12337,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>187</v>
       </c>
@@ -12360,7 +12366,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>187</v>
       </c>
@@ -12389,7 +12395,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>187</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>187</v>
       </c>
@@ -12447,7 +12453,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>187</v>
       </c>
@@ -12470,7 +12476,7 @@
       <c r="M252" s="2"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>187</v>
       </c>
@@ -12499,7 +12505,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>187</v>
       </c>
@@ -12531,7 +12537,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>187</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>187</v>
       </c>
@@ -12595,7 +12601,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>187</v>
       </c>
@@ -12627,7 +12633,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>187</v>
       </c>
@@ -12660,7 +12666,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>187</v>
       </c>
@@ -12693,7 +12699,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>187</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>187</v>
       </c>
@@ -12756,7 +12762,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>187</v>
       </c>
@@ -12786,7 +12792,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>187</v>
       </c>
@@ -12816,7 +12822,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>187</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>187</v>
       </c>
@@ -12889,7 +12895,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>187</v>
       </c>
@@ -12924,7 +12930,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>187</v>
       </c>
@@ -12965,7 +12971,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>187</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>187</v>
       </c>
@@ -13036,7 +13042,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>187</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>187</v>
       </c>
@@ -13108,7 +13114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>187</v>
       </c>
@@ -13144,7 +13150,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>187</v>
       </c>
@@ -13180,7 +13186,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>187</v>
       </c>
@@ -13216,7 +13222,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>187</v>
       </c>
@@ -13252,7 +13258,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>187</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>187</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>187</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>187</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>187</v>
       </c>
@@ -13433,7 +13439,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>187</v>
       </c>
@@ -13467,7 +13473,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>187</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>187</v>
       </c>
@@ -13546,7 +13552,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>187</v>
       </c>
@@ -13572,7 +13578,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>187</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>187</v>
       </c>
@@ -13656,15 +13662,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.296875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="32.19921875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="27" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1044</v>
       </c>
@@ -13683,7 +13689,7 @@
       </c>
       <c r="K1" s="25"/>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13695,7 +13701,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13717,7 +13723,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13737,7 +13743,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13759,7 +13765,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13781,7 +13787,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13801,7 +13807,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13821,7 +13827,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13841,7 +13847,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13861,7 +13867,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13881,7 +13887,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13901,7 +13907,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -13913,7 +13919,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13933,7 +13939,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13953,7 +13959,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13973,7 +13979,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13995,7 +14001,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1047</v>
       </c>
@@ -14015,7 +14021,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1047</v>
       </c>
@@ -14035,7 +14041,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1047</v>
       </c>
@@ -14055,7 +14061,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14067,7 +14073,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14079,7 +14085,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14091,7 +14097,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14103,7 +14109,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14115,7 +14121,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14127,7 +14133,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -14139,7 +14145,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14151,7 +14157,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -14163,7 +14169,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -14175,7 +14181,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -14187,7 +14193,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -14199,7 +14205,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -14211,7 +14217,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -14223,7 +14229,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -14235,7 +14241,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -14247,7 +14253,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -14259,7 +14265,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -14271,7 +14277,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -14283,7 +14289,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -14295,7 +14301,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -14307,7 +14313,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -14319,7 +14325,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -14331,7 +14337,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -14343,7 +14349,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -14355,7 +14361,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -14367,7 +14373,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -14379,7 +14385,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -14391,7 +14397,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -14403,7 +14409,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -14415,7 +14421,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -14427,7 +14433,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -14439,7 +14445,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -14451,7 +14457,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -14463,7 +14469,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -14475,7 +14481,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -14487,7 +14493,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -14499,7 +14505,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -14511,7 +14517,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -14523,7 +14529,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -14535,7 +14541,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -14547,7 +14553,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -14559,7 +14565,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -14571,7 +14577,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="1108">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -3363,6 +3363,12 @@
   </si>
   <si>
     <t xml:space="preserve">doShAvastaH </t>
+  </si>
+  <si>
+    <t>iH</t>
+  </si>
+  <si>
+    <t>H=Sh</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3547,6 +3553,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3827,13 +3834,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V286"/>
+  <dimension ref="A3:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D240" sqref="D240"/>
+      <selection pane="bottomRight" activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13121,34 +13128,26 @@
       <c r="B272" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E272" s="2" t="s">
+      <c r="C272" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="D272" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E272" s="32" t="s">
         <v>1006</v>
       </c>
-      <c r="F272" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K272" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="L272" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="M272" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="F272" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="G272" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
       <c r="N272" s="2"/>
-      <c r="O272" s="2" t="s">
-        <v>995</v>
-      </c>
+      <c r="O272" s="2"/>
     </row>
     <row r="273" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
@@ -13167,23 +13166,23 @@
         <v>1006</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1005</v>
+        <v>219</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>227</v>
+        <v>994</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1005</v>
+        <v>219</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="274" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13197,29 +13196,29 @@
         <v>214</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>84</v>
+        <v>1005</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>84</v>
+        <v>1005</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="275" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13233,29 +13232,29 @@
         <v>214</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>107</v>
+        <v>1006</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>1011</v>
+        <v>84</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13266,32 +13265,32 @@
         <v>31</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M276" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="277" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13305,28 +13304,29 @@
         <v>23</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>1017</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="N277" s="2"/>
       <c r="O277" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="278" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13337,31 +13337,31 @@
         <v>31</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="279" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13372,30 +13372,31 @@
         <v>31</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>963</v>
+        <v>51</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E279" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F279" s="2" t="s">
-        <v>958</v>
+        <v>231</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>959</v>
+        <v>1019</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>960</v>
+        <v>228</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="N279" s="2"/>
+        <v>1020</v>
+      </c>
       <c r="O279" s="2" t="s">
-        <v>961</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="280" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13403,40 +13404,33 @@
         <v>187</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>658</v>
+        <v>963</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1023</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E280" s="2"/>
       <c r="F280" s="2" t="s">
-        <v>84</v>
+        <v>958</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>1022</v>
+        <v>959</v>
       </c>
       <c r="L280" s="2" t="s">
-        <v>1024</v>
+        <v>960</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N280" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="N280" s="2"/>
       <c r="O280" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P280" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Q280" s="2" t="s">
-        <v>1028</v>
+        <v>961</v>
       </c>
     </row>
     <row r="281" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13447,30 +13441,37 @@
         <v>115</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2" t="s">
-        <v>23</v>
+        <v>658</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1023</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>212</v>
+        <v>1024</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N281" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="N281" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O281" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
+      </c>
+      <c r="P281" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q281" s="2" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="282" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13483,29 +13484,28 @@
       <c r="C282" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="D282" s="2"/>
       <c r="E282" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>979</v>
+        <v>86</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>979</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N282" s="2"/>
       <c r="O282" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="283" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13516,40 +13516,31 @@
         <v>115</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>658</v>
+        <v>2</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>957</v>
+        <v>232</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>233</v>
+        <v>979</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K283" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L283" s="2" t="s">
-        <v>1035</v>
+        <v>232</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N283" s="2" t="s">
-        <v>233</v>
+        <v>979</v>
       </c>
       <c r="O283" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="P283" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Q283" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="284" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13559,23 +13550,41 @@
       <c r="B284" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C284" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" s="16" t="s">
+      <c r="C284" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F284" s="16" t="s">
+      <c r="G284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M284" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G284" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="K284" s="16" t="s">
-        <v>477</v>
+      <c r="N284" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O284" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P284" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q284" s="2" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="285" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13585,32 +13594,23 @@
       <c r="B285" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>197</v>
+      <c r="C285" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K285" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L285" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M285" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O285" s="2" t="s">
-        <v>1040</v>
+        <v>2</v>
+      </c>
+      <c r="F285" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G285" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="K285" s="16" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="286" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13624,27 +13624,62 @@
         <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F286" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O286" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="G287" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K286" s="2" t="s">
+      <c r="K287" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L286" s="2" t="s">
+      <c r="L287" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M286" s="2" t="s">
+      <c r="M287" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="O286" s="2" t="s">
+      <c r="O287" s="2" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3871,10 +3871,10 @@
   <dimension ref="A3:V291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="17" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>20</v>
+        <v>1109</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>31</v>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3414,13 +3414,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3558,60 +3564,60 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3895,10 +3901,10 @@
   <dimension ref="A3:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -3901,10 +3901,10 @@
   <dimension ref="A3:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14071,7 +14071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1122">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -3408,6 +3408,9 @@
   </si>
   <si>
     <t>uvu saH</t>
+  </si>
+  <si>
+    <t>n or an</t>
   </si>
 </sst>
 </file>
@@ -3562,7 +3565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3618,6 +3621,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3901,10 +3905,10 @@
   <dimension ref="A3:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F285" sqref="F285"/>
+      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8832,8 +8836,8 @@
       <c r="E147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>39</v>
+      <c r="F147" s="37" t="s">
+        <v>1121</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -8865,8 +8869,8 @@
       <c r="E148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>39</v>
+      <c r="F148" s="37" t="s">
+        <v>1121</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -8907,8 +8911,8 @@
       <c r="E149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>39</v>
+      <c r="F149" s="37" t="s">
+        <v>1121</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -8940,8 +8944,8 @@
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>39</v>
+      <c r="F150" s="37" t="s">
+        <v>1121</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
